--- a/TP2/GUI-Synth/PROGRESO.xlsx
+++ b/TP2/GUI-Synth/PROGRESO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ASSD\TP2\GUI-Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E8662F-CE0E-4419-A409-923DBD34B8E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5A5313-221F-4F98-88FD-AF0AE1F35083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
+    <workbookView xWindow="17010" yWindow="2580" windowWidth="21600" windowHeight="11385" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>INSTRUMENT</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>TOTAL DE TOTALES</t>
+  </si>
+  <si>
+    <t>N° of inst</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,8 +190,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -248,12 +257,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,53 +307,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -628,7 +686,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,27 +695,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G1" s="22" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -666,83 +727,112 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
         <f>C2/3 + D2/3 + E2/3</f>
         <v>1</v>
       </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3">
         <f>C3/3 + D3/3 + E3/3</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
         <f>C4/6 + C5/6 + D4/3 + E4/3</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18">
+        <v>7</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
-      <c r="I5" s="19">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="18"/>
+      <c r="I5" s="15">
         <f>AVERAGE(B28,F17)</f>
-        <v>0.2638888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
         <f>C6/3 + D6/3 + E6/3</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -751,39 +841,44 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="12">
         <f>C7/9 + C8/9 + C9/9 + D7/3 + E7/3</f>
         <v>0.33333333333333331</v>
       </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -792,45 +887,44 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4">
-        <f>C10/3 + D10/3 + E10/3</f>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="12">
+        <f>C10/9 + C11/9 + C12/9 + D10/3 + E10/3</f>
         <v>0.33333333333333331</v>
       </c>
+      <c r="G10" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4">
-        <f t="shared" ref="F11:F16" si="0">C11/3 + D11/3 + E11/3</f>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -839,19 +933,22 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <f>C13/3 + D13/3 + E13/3</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -860,19 +957,22 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" ref="F14:F16" si="0">C14/3 + D14/3 + E14/3</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -881,19 +981,22 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -902,110 +1005,123 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="G16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="15">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="11">
         <f>AVERAGE(F2:F16)</f>
-        <v>0.52777777777777779</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="G17" s="23">
+        <f>MAX(G2:G16)+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="8">
         <f>AVERAGE(B20:B27)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="17">
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TP2/GUI-Synth/PROGRESO.xlsx
+++ b/TP2/GUI-Synth/PROGRESO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ASSD\TP2\GUI-Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5A5313-221F-4F98-88FD-AF0AE1F35083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90740C3-44B1-408C-9CF7-919F551806DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17010" yWindow="2580" windowWidth="21600" windowHeight="11385" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
   </bookViews>
@@ -686,7 +686,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J37" sqref="J36:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +803,7 @@
       <c r="G5" s="18"/>
       <c r="I5" s="15">
         <f>AVERAGE(B28,F17)</f>
-        <v>0.4</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="J5" s="16"/>
     </row>
@@ -841,11 +841,13 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
       <c r="E7" s="18"/>
       <c r="F7" s="12">
         <f>C7/9 + C8/9 + C9/9 + D7/3 + E7/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G7" s="18">
         <v>1</v>
@@ -887,11 +889,13 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="19">
+        <v>1</v>
+      </c>
       <c r="E10" s="19"/>
       <c r="F10" s="12">
         <f>C10/9 + C11/9 + C12/9 + D10/3 + E10/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G10" s="18">
         <v>2</v>
@@ -1029,7 +1033,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="11">
         <f>AVERAGE(F2:F16)</f>
-        <v>0.8</v>
+        <v>0.86666666666666659</v>
       </c>
       <c r="G17" s="23">
         <f>MAX(G2:G16)+1</f>

--- a/TP2/GUI-Synth/PROGRESO.xlsx
+++ b/TP2/GUI-Synth/PROGRESO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ASSD\TP2\GUI-Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90740C3-44B1-408C-9CF7-919F551806DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52278784-AAF8-4F61-925E-6D4F57A74725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17010" yWindow="2580" windowWidth="21600" windowHeight="11385" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
   </bookViews>
@@ -686,7 +686,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J36:J37"/>
+      <selection activeCell="E7" sqref="E7:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +803,7 @@
       <c r="G5" s="18"/>
       <c r="I5" s="15">
         <f>AVERAGE(B28,F17)</f>
-        <v>0.43333333333333329</v>
+        <v>0.45</v>
       </c>
       <c r="J5" s="16"/>
     </row>
@@ -844,10 +844,12 @@
       <c r="D7" s="18">
         <v>1</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
       <c r="F7" s="12">
         <f>C7/9 + C8/9 + C9/9 + D7/3 + E7/3</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="G7" s="18">
         <v>1</v>
@@ -1033,7 +1035,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="11">
         <f>AVERAGE(F2:F16)</f>
-        <v>0.86666666666666659</v>
+        <v>0.9</v>
       </c>
       <c r="G17" s="23">
         <f>MAX(G2:G16)+1</f>

--- a/TP2/GUI-Synth/PROGRESO.xlsx
+++ b/TP2/GUI-Synth/PROGRESO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ASSD\TP2\GUI-Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52278784-AAF8-4F61-925E-6D4F57A74725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59518DFB-C764-4435-8A20-F0D581301A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17010" yWindow="2580" windowWidth="21600" windowHeight="11385" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
+    <workbookView xWindow="15555" yWindow="1965" windowWidth="21600" windowHeight="11385" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -332,27 +332,21 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,10 +356,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -686,7 +686,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +713,7 @@
       <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -751,18 +751,22 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
       <c r="F3" s="3">
         <f>C3/3 + D3/3 + E3/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -771,41 +775,41 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="18">
-        <v>1</v>
-      </c>
-      <c r="E4" s="18">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
         <f>C4/6 + C5/6 + D4/3 + E4/3</f>
         <v>1</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="14">
         <v>7</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="14"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="18"/>
-      <c r="I5" s="15">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="I5" s="22">
         <f>AVERAGE(B28,F17)</f>
-        <v>0.45</v>
-      </c>
-      <c r="J5" s="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -832,7 +836,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -841,48 +845,48 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="18">
-        <v>1</v>
-      </c>
-      <c r="E7" s="18">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
         <f>C7/9 + C8/9 + C9/9 + D7/3 + E7/3</f>
         <v>1</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -891,43 +895,45 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="19">
-        <v>1</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="12">
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15">
         <f>C10/9 + C11/9 + C12/9 + D10/3 + E10/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1035,9 +1041,9 @@
       <c r="E17" s="9"/>
       <c r="F17" s="11">
         <f>AVERAGE(F2:F16)</f>
-        <v>0.9</v>
-      </c>
-      <c r="G17" s="23">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
         <f>MAX(G2:G16)+1</f>
         <v>10</v>
       </c>
@@ -1111,6 +1117,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="A10:A12"/>
@@ -1122,12 +1134,6 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TP2/GUI-Synth/PROGRESO.xlsx
+++ b/TP2/GUI-Synth/PROGRESO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ASSD\TP2\GUI-Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59518DFB-C764-4435-8A20-F0D581301A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982CCE33-9957-4680-8A53-586634A8913E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15555" yWindow="1965" windowWidth="21600" windowHeight="11385" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -307,9 +307,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,9 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,9 +335,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -366,6 +357,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -686,7 +689,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,30 +698,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -733,7 +736,7 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="22">
         <f>C2/3 + D2/3 + E2/3</f>
         <v>1</v>
       </c>
@@ -742,7 +745,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -757,7 +760,7 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="22">
         <f>C3/3 + D3/3 + E3/3</f>
         <v>1</v>
       </c>
@@ -766,7 +769,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -775,44 +778,44 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23">
         <f>C4/6 + C5/6 + D4/3 + E4/3</f>
         <v>1</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="12">
         <v>7</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="I5" s="22">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="12"/>
+      <c r="I5" s="19">
         <f>AVERAGE(B28,F17)</f>
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="23"/>
+        <v>0.5625</v>
+      </c>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -827,7 +830,7 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="22">
         <f>C6/3 + D6/3 + E6/3</f>
         <v>1</v>
       </c>
@@ -836,7 +839,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -845,48 +848,48 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="14">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23">
         <f>C7/9 + C8/9 + C9/9 + D7/3 + E7/3</f>
         <v>1</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -895,48 +898,48 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="17">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23">
         <f>C10/9 + C11/9 + C12/9 + D10/3 + E10/3</f>
         <v>1</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -951,7 +954,7 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="22">
         <f>C13/3 + D13/3 + E13/3</f>
         <v>1</v>
       </c>
@@ -960,7 +963,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -975,7 +978,7 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="22">
         <f t="shared" ref="F14:F16" si="0">C14/3 + D14/3 + E14/3</f>
         <v>1</v>
       </c>
@@ -984,7 +987,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -999,7 +1002,7 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1008,7 +1011,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1023,7 +1026,7 @@
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1032,87 +1035,101 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="11">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9">
         <f>AVERAGE(F2:F16)</f>
         <v>1</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="11">
         <f>MAX(G2:G16)+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="21">
         <f>AVERAGE(B20:B27)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>

--- a/TP2/GUI-Synth/PROGRESO.xlsx
+++ b/TP2/GUI-Synth/PROGRESO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ASSD\TP2\GUI-Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982CCE33-9957-4680-8A53-586634A8913E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AF3363-B245-4225-941D-CB68DD27B95D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15555" yWindow="1965" windowWidth="21600" windowHeight="11385" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>INSTRUMENT</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>N° of inst</t>
+  </si>
+  <si>
+    <t>Play WAV</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,10 +335,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -347,28 +374,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -686,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C679E9-F08B-48AB-81D5-D49350C6C4CB}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +745,7 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="13">
         <f>C2/3 + D2/3 + E2/3</f>
         <v>1</v>
       </c>
@@ -760,7 +769,7 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="13">
         <f>C3/3 + D3/3 + E3/3</f>
         <v>1</v>
       </c>
@@ -769,7 +778,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -778,41 +787,41 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="23">
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21">
         <f>C4/6 + C5/6 + D4/3 + E4/3</f>
         <v>1</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="20">
         <v>7</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="12"/>
-      <c r="I5" s="19">
-        <f>AVERAGE(B28,F17)</f>
-        <v>0.5625</v>
-      </c>
-      <c r="J5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="I5" s="17">
+        <f>AVERAGE(B29,F17)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -830,7 +839,7 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="13">
         <f>C6/3 + D6/3 + E6/3</f>
         <v>1</v>
       </c>
@@ -839,7 +848,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -848,48 +857,48 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="F7" s="23">
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21">
         <f>C7/9 + C8/9 + C9/9 + D7/3 + E7/3</f>
         <v>1</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="12"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="12"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -898,45 +907,45 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="14">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="23">
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21">
         <f>C10/9 + C11/9 + C12/9 + D10/3 + E10/3</f>
         <v>1</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="12"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="12"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -954,7 +963,7 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="13">
         <f>C13/3 + D13/3 + E13/3</f>
         <v>1</v>
       </c>
@@ -978,7 +987,7 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="13">
         <f t="shared" ref="F14:F16" si="0">C14/3 + D14/3 + E14/3</f>
         <v>1</v>
       </c>
@@ -1002,7 +1011,7 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1026,7 +1035,7 @@
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1063,7 +1072,7 @@
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1071,7 +1080,7 @@
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1079,7 +1088,7 @@
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1087,7 +1096,7 @@
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1095,51 +1104,53 @@
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="24">
+      <c r="B26" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B28" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="21">
-        <f>AVERAGE(B20:B27)</f>
-        <v>0.125</v>
+      <c r="B29" s="12">
+        <f>AVERAGE(B20:B28)</f>
+        <v>0.16666666666666666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="A10:A12"/>
@@ -1151,6 +1162,12 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TP2/GUI-Synth/PROGRESO.xlsx
+++ b/TP2/GUI-Synth/PROGRESO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ASSD\TP2\GUI-Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AF3363-B245-4225-941D-CB68DD27B95D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ED4F66-F3E4-4EBB-92C2-B089C56E1C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>INSTRUMENT</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Play WAV</t>
+  </si>
+  <si>
+    <t>Podría mejorarse</t>
   </si>
 </sst>
 </file>
@@ -344,27 +347,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,10 +371,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -698,7 +701,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,23 +790,23 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="20">
-        <v>1</v>
-      </c>
-      <c r="E4" s="20">
-        <v>1</v>
-      </c>
-      <c r="F4" s="21">
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18">
         <f>C4/6 + C5/6 + D4/3 + E4/3</f>
         <v>1</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <v>7</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -813,15 +816,15 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20"/>
-      <c r="I5" s="17">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="I5" s="25">
         <f>AVERAGE(B29,F17)</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -857,17 +860,17 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="20">
-        <v>1</v>
-      </c>
-      <c r="F7" s="21">
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18">
         <f>C7/9 + C8/9 + C9/9 + D7/3 + E7/3</f>
         <v>1</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="17">
         <v>1</v>
       </c>
     </row>
@@ -879,10 +882,10 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
@@ -892,10 +895,10 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
@@ -907,17 +910,17 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="22">
-        <v>1</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="21">
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18">
         <f>C10/9 + C11/9 + C12/9 + D10/3 + E10/3</f>
         <v>1</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="17">
         <v>2</v>
       </c>
     </row>
@@ -929,10 +932,10 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
@@ -942,10 +945,10 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1089,7 +1092,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1109,10 +1115,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="16">
         <v>0.5</v>
       </c>
     </row>
@@ -1146,11 +1152,17 @@
       </c>
       <c r="B29" s="12">
         <f>AVERAGE(B20:B28)</f>
-        <v>0.16666666666666666</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="A10:A12"/>
@@ -1162,12 +1174,6 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TP2/GUI-Synth/PROGRESO.xlsx
+++ b/TP2/GUI-Synth/PROGRESO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ASSD\TP2\GUI-Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ED4F66-F3E4-4EBB-92C2-B089C56E1C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088E115C-50C0-4EBF-80BE-2419DA5AE5DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>INSTRUMENT</t>
   </si>
@@ -141,6 +141,57 @@
   </si>
   <si>
     <t>Podría mejorarse</t>
+  </si>
+  <si>
+    <t>WINDOWS</t>
+  </si>
+  <si>
+    <t>Bowcar</t>
+  </si>
+  <si>
+    <t>Triang</t>
+  </si>
+  <si>
+    <t>Blackman</t>
+  </si>
+  <si>
+    <t>Hanning</t>
+  </si>
+  <si>
+    <t>Hamming</t>
+  </si>
+  <si>
+    <t>Bartlett</t>
+  </si>
+  <si>
+    <t>Flattop</t>
+  </si>
+  <si>
+    <t>Parzen</t>
+  </si>
+  <si>
+    <t>Bohman</t>
+  </si>
+  <si>
+    <t>BlacmanHarris</t>
+  </si>
+  <si>
+    <t>Nuttall</t>
+  </si>
+  <si>
+    <t>Barthann</t>
+  </si>
+  <si>
+    <t>Kaiser (Beta)</t>
+  </si>
+  <si>
+    <t>Gaussian (Std Dev)</t>
+  </si>
+  <si>
+    <t>Exp. (decay scale)</t>
+  </si>
+  <si>
+    <t>Tukey (taper frac)</t>
   </si>
 </sst>
 </file>
@@ -305,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -352,6 +403,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,15 +752,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C679E9-F08B-48AB-81D5-D49350C6C4CB}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -781,7 +836,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -790,41 +845,41 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="17">
-        <v>1</v>
-      </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="18">
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19">
         <f>C4/6 + C5/6 + D4/3 + E4/3</f>
         <v>1</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="18">
         <v>7</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="24"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="I5" s="25">
-        <f>AVERAGE(B29,F17)</f>
-        <v>0.63888888888888884</v>
-      </c>
-      <c r="J5" s="26"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="I5" s="26">
+        <f>AVERAGE(F17,B29,G36)</f>
+        <v>0.42592592592592587</v>
+      </c>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -851,7 +906,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -860,48 +915,48 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="18">
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
         <f>C7/9 + C8/9 + C9/9 + D7/3 + E7/3</f>
         <v>1</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -910,45 +965,45 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="20">
-        <v>1</v>
-      </c>
-      <c r="E10" s="20">
-        <v>1</v>
-      </c>
-      <c r="F10" s="18">
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
         <f>C10/9 + C11/9 + C12/9 + D10/3 + E10/3</f>
         <v>1</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1070,6 +1125,12 @@
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1078,6 +1139,12 @@
       <c r="B20" s="14">
         <v>0</v>
       </c>
+      <c r="F20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -1086,6 +1153,12 @@
       <c r="B21" s="14">
         <v>1</v>
       </c>
+      <c r="F21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1097,6 +1170,12 @@
       <c r="C22" t="s">
         <v>35</v>
       </c>
+      <c r="F22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1105,6 +1184,12 @@
       <c r="B23" s="14">
         <v>0</v>
       </c>
+      <c r="F23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -1113,6 +1198,12 @@
       <c r="B24" s="14">
         <v>0</v>
       </c>
+      <c r="F24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
@@ -1121,6 +1212,12 @@
       <c r="B25" s="16">
         <v>0.5</v>
       </c>
+      <c r="F25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -1129,6 +1226,12 @@
       <c r="B26" s="14">
         <v>0</v>
       </c>
+      <c r="F26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
@@ -1137,6 +1240,12 @@
       <c r="B27" s="14">
         <v>0</v>
       </c>
+      <c r="F27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1145,6 +1254,12 @@
       <c r="B28" s="14">
         <v>0</v>
       </c>
+      <c r="F28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -1153,6 +1268,69 @@
       <c r="B29" s="12">
         <f>AVERAGE(B20:B28)</f>
         <v>0.27777777777777779</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="12">
+        <f>AVERAGE(G20:G35)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TP2/GUI-Synth/PROGRESO.xlsx
+++ b/TP2/GUI-Synth/PROGRESO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ASSD\TP2\GUI-Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088E115C-50C0-4EBF-80BE-2419DA5AE5DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9C2591-478E-4566-98B2-828B4B71EB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>INSTRUMENT</t>
   </si>
@@ -146,9 +146,6 @@
     <t>WINDOWS</t>
   </si>
   <si>
-    <t>Bowcar</t>
-  </si>
-  <si>
     <t>Triang</t>
   </si>
   <si>
@@ -164,21 +161,6 @@
     <t>Bartlett</t>
   </si>
   <si>
-    <t>Flattop</t>
-  </si>
-  <si>
-    <t>Parzen</t>
-  </si>
-  <si>
-    <t>Bohman</t>
-  </si>
-  <si>
-    <t>BlacmanHarris</t>
-  </si>
-  <si>
-    <t>Nuttall</t>
-  </si>
-  <si>
     <t>Barthann</t>
   </si>
   <si>
@@ -191,7 +173,13 @@
     <t>Exp. (decay scale)</t>
   </si>
   <si>
-    <t>Tukey (taper frac)</t>
+    <t>Rect</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>BlackmanHarris</t>
   </si>
 </sst>
 </file>
@@ -407,15 +395,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -424,18 +424,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -752,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C679E9-F08B-48AB-81D5-D49350C6C4CB}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +824,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -845,41 +833,41 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="18">
-        <v>1</v>
-      </c>
-      <c r="E4" s="18">
-        <v>1</v>
-      </c>
-      <c r="F4" s="19">
+      <c r="D4" s="23">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24">
         <f>C4/6 + C5/6 + D4/3 + E4/3</f>
         <v>1</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="23">
         <v>7</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="25"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="I5" s="26">
-        <f>AVERAGE(F17,B29,G36)</f>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
+      <c r="I5" s="20">
+        <f>AVERAGE(F17,B29,G31)</f>
         <v>0.42592592592592587</v>
       </c>
-      <c r="J5" s="27"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -906,7 +894,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -915,48 +903,48 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="18">
-        <v>1</v>
-      </c>
-      <c r="E7" s="18">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="F7" s="24">
         <f>C7/9 + C8/9 + C9/9 + D7/3 + E7/3</f>
         <v>1</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -965,45 +953,45 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="21">
-        <v>1</v>
-      </c>
-      <c r="E10" s="21">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19">
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24">
         <f>C10/9 + C11/9 + C12/9 + D10/3 + E10/3</f>
         <v>1</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1213,7 +1201,7 @@
         <v>0.5</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G25" s="17">
         <v>0</v>
@@ -1227,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" s="17">
         <v>0</v>
@@ -1241,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1255,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="17">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1270,77 +1258,31 @@
         <v>0.27777777777777779</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="17">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="8" t="s">
+      <c r="F31" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="12">
-        <f>AVERAGE(G20:G35)</f>
+      <c r="G31" s="12">
+        <f>AVERAGE(G20:G30)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="A10:A12"/>
@@ -1352,6 +1294,12 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TP2/GUI-Synth/PROGRESO.xlsx
+++ b/TP2/GUI-Synth/PROGRESO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ASSD\TP2\GUI-Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9C2591-478E-4566-98B2-828B4B71EB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60653C5A-5655-4C0C-AFF5-5877F7F33153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
+    <workbookView xWindow="7200" yWindow="4110" windowWidth="21600" windowHeight="11385" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>INSTRUMENT</t>
   </si>
@@ -176,10 +176,19 @@
     <t>Rect</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>BlackmanHarris</t>
+  </si>
+  <si>
+    <t>Button to load any wav</t>
+  </si>
+  <si>
+    <t>ddm select window</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>N° of wind.</t>
   </si>
 </sst>
 </file>
@@ -344,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -391,6 +400,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C679E9-F08B-48AB-81D5-D49350C6C4CB}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +836,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -833,41 +845,41 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="23">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23">
-        <v>1</v>
-      </c>
-      <c r="F4" s="24">
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1</v>
+      </c>
+      <c r="F4" s="25">
         <f>C4/6 + C5/6 + D4/3 + E4/3</f>
         <v>1</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="24">
         <v>7</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="I5" s="20">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="24"/>
+      <c r="I5" s="21">
         <f>AVERAGE(F17,B29,G31)</f>
-        <v>0.42592592592592587</v>
-      </c>
-      <c r="J5" s="21"/>
+        <v>0.79629629629629628</v>
+      </c>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -894,7 +906,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -903,48 +915,48 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="23">
-        <v>1</v>
-      </c>
-      <c r="E7" s="23">
-        <v>1</v>
-      </c>
-      <c r="F7" s="24">
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25">
         <f>C7/9 + C8/9 + C9/9 + D7/3 + E7/3</f>
         <v>1</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -953,45 +965,45 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="25">
-        <v>1</v>
-      </c>
-      <c r="E10" s="25">
-        <v>1</v>
-      </c>
-      <c r="F10" s="24">
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25">
         <f>C10/9 + C11/9 + C12/9 + D10/3 + E10/3</f>
         <v>1</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="23"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1089,7 +1101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1106,7 +1118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1119,8 +1131,11 @@
       <c r="G19" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -1131,10 +1146,13 @@
         <v>37</v>
       </c>
       <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -1145,10 +1163,16 @@
         <v>38</v>
       </c>
       <c r="G21" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -1162,10 +1186,16 @@
         <v>39</v>
       </c>
       <c r="G22" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H22" s="18">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -1176,10 +1206,16 @@
         <v>40</v>
       </c>
       <c r="G23" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H23" s="18">
+        <v>3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -1190,10 +1226,13 @@
         <v>41</v>
       </c>
       <c r="G24" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H24" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
@@ -1201,13 +1240,16 @@
         <v>0.5</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1218,24 +1260,30 @@
         <v>42</v>
       </c>
       <c r="G26" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H26" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>31</v>
       </c>
@@ -1245,40 +1293,53 @@
       <c r="F28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="17">
+        <v>1</v>
+      </c>
+      <c r="H28" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="12">
         <f>AVERAGE(B20:B28)</f>
-        <v>0.27777777777777779</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="17">
+        <v>1</v>
+      </c>
+      <c r="H29" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G30" s="17">
+        <v>1</v>
+      </c>
+      <c r="H30" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F31" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="12">
         <f>AVERAGE(G20:G30)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H31" s="11">
+        <f>MAX(H20:H30)+1</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TP2/GUI-Synth/PROGRESO.xlsx
+++ b/TP2/GUI-Synth/PROGRESO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ASSD\TP2\GUI-Synth\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\New-ASSD\TP2\GUI-Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60653C5A-5655-4C0C-AFF5-5877F7F33153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD95EDE3-3780-4212-8A79-F439768A13CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4110" windowWidth="21600" windowHeight="11385" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -407,27 +407,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,6 +424,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -755,7 +755,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +836,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -845,41 +845,41 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="24">
-        <v>1</v>
-      </c>
-      <c r="E4" s="24">
-        <v>1</v>
-      </c>
-      <c r="F4" s="25">
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="20">
         <f>C4/6 + C5/6 + D4/3 + E4/3</f>
         <v>1</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="19">
         <v>7</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="20"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="24"/>
-      <c r="I5" s="21">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+      <c r="I5" s="27">
         <f>AVERAGE(F17,B29,G31)</f>
-        <v>0.79629629629629628</v>
-      </c>
-      <c r="J5" s="22"/>
+        <v>0.81481481481481488</v>
+      </c>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -906,7 +906,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -915,48 +915,48 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="24">
-        <v>1</v>
-      </c>
-      <c r="E7" s="24">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25">
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="20">
         <f>C7/9 + C8/9 + C9/9 + D7/3 + E7/3</f>
         <v>1</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="24"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="24"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -965,45 +965,45 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="26">
-        <v>1</v>
-      </c>
-      <c r="E10" s="26">
-        <v>1</v>
-      </c>
-      <c r="F10" s="25">
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20">
         <f>C10/9 + C11/9 + C12/9 + D10/3 + E10/3</f>
         <v>1</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="24"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1220,7 +1220,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>41</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B29" s="12">
         <f>AVERAGE(B20:B28)</f>
-        <v>0.3888888888888889</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>45</v>
@@ -1344,6 +1344,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="A10:A12"/>
@@ -1355,12 +1361,6 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TP2/GUI-Synth/PROGRESO.xlsx
+++ b/TP2/GUI-Synth/PROGRESO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\New-ASSD\TP2\GUI-Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD95EDE3-3780-4212-8A79-F439768A13CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B484B21-47F8-4E84-9317-FA35AF5D7CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>INSTRUMENT</t>
   </si>
@@ -189,6 +189,69 @@
   </si>
   <si>
     <t>N° of wind.</t>
+  </si>
+  <si>
+    <t>Min.</t>
+  </si>
+  <si>
+    <t>Max.</t>
+  </si>
+  <si>
+    <t>DDM</t>
+  </si>
+  <si>
+    <t>Elemento</t>
+  </si>
+  <si>
+    <t>Param.</t>
+  </si>
+  <si>
+    <t>Instrum.</t>
+  </si>
+  <si>
+    <t>Guitar</t>
+  </si>
+  <si>
+    <t>E. Guitar</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>Eco</t>
+  </si>
+  <si>
+    <t>Time Eco</t>
+  </si>
+  <si>
+    <t>Decay Factor</t>
+  </si>
+  <si>
+    <t>Reverb.</t>
+  </si>
+  <si>
+    <t>Mix Factor</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Gauss</t>
+  </si>
+  <si>
+    <t>Stand. Dev.</t>
+  </si>
+  <si>
+    <t>Exp.</t>
+  </si>
+  <si>
+    <t>Decay</t>
+  </si>
+  <si>
+    <t>Kaiser</t>
+  </si>
+  <si>
+    <t>Beta</t>
   </si>
 </sst>
 </file>
@@ -219,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +313,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -353,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -410,12 +485,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,17 +518,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -752,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C679E9-F08B-48AB-81D5-D49350C6C4CB}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +851,7 @@
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -787,7 +874,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -810,8 +897,23 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -834,9 +936,20 @@
       <c r="G3" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="M3" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -845,43 +958,59 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="19">
-        <v>1</v>
-      </c>
-      <c r="E4" s="19">
-        <v>1</v>
-      </c>
-      <c r="F4" s="20">
+      <c r="D4" s="26">
+        <v>1</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1</v>
+      </c>
+      <c r="F4" s="27">
         <f>C4/6 + C5/6 + D4/3 + E4/3</f>
         <v>1</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="26">
         <v>7</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="26"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="I5" s="27">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="26"/>
+      <c r="I5" s="23">
         <f>AVERAGE(F17,B29,G31)</f>
         <v>0.81481481481481488</v>
       </c>
-      <c r="J5" s="28"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="24"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -904,9 +1033,16 @@
       <c r="G6" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="M6" s="32"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -915,48 +1051,71 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="20">
+      <c r="D7" s="26">
+        <v>1</v>
+      </c>
+      <c r="E7" s="26">
+        <v>1</v>
+      </c>
+      <c r="F7" s="27">
         <f>C7/9 + C8/9 + C9/9 + D7/3 + E7/3</f>
         <v>1</v>
       </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="G7" s="26">
+        <v>1</v>
+      </c>
+      <c r="M7" s="32"/>
+      <c r="N7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="26"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="26"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -965,47 +1124,72 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="22">
-        <v>1</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="20">
+      <c r="D10" s="28">
+        <v>1</v>
+      </c>
+      <c r="E10" s="28">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27">
         <f>C10/9 + C11/9 + C12/9 + D10/3 + E10/3</f>
         <v>1</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="26">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="26"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="26"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1028,8 +1212,19 @@
       <c r="G13" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1052,8 +1247,15 @@
       <c r="G14" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M14" s="32"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -1076,8 +1278,17 @@
       <c r="G15" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M15" s="32"/>
+      <c r="N15" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -1100,8 +1311,15 @@
       <c r="G16" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" s="32"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1117,8 +1335,30 @@
         <f>MAX(G2:G16)+1</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M18" s="32"/>
+      <c r="N18" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1134,8 +1374,17 @@
       <c r="H19" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" s="32"/>
+      <c r="N19" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -1152,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -1168,11 +1417,8 @@
       <c r="H21" s="18">
         <v>1</v>
       </c>
-      <c r="K21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -1191,11 +1437,8 @@
       <c r="H22" s="18">
         <v>2</v>
       </c>
-      <c r="K22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -1211,11 +1454,8 @@
       <c r="H23" s="18">
         <v>3</v>
       </c>
-      <c r="K23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -1231,8 +1471,11 @@
       <c r="H24" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
@@ -1248,8 +1491,11 @@
       <c r="H25" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1265,8 +1511,11 @@
       <c r="H26" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -1283,7 +1532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>31</v>
       </c>
@@ -1300,7 +1549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
@@ -1318,7 +1567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F30" s="5" t="s">
         <v>43</v>
       </c>
@@ -1329,7 +1578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F31" s="8" t="s">
         <v>22</v>
       </c>
@@ -1343,13 +1592,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G4:G5"/>
+  <mergeCells count="25">
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="N15:N16"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="A10:A12"/>
@@ -1361,6 +1612,12 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TP2/GUI-Synth/PROGRESO.xlsx
+++ b/TP2/GUI-Synth/PROGRESO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\New-ASSD\TP2\GUI-Synth\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\GitHub\ASSD\TP2\GUI-Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B484B21-47F8-4E84-9317-FA35AF5D7CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66357A5-5584-4EEE-B963-533430833FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>INSTRUMENT</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>Beta</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.999</t>
   </si>
 </sst>
 </file>
@@ -488,6 +494,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,30 +529,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -841,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C679E9-F08B-48AB-81D5-D49350C6C4CB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,20 +942,20 @@
       <c r="G3" s="2">
         <v>9</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="22" t="s">
         <v>57</v>
       </c>
       <c r="N3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -958,57 +964,65 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="26">
-        <v>1</v>
-      </c>
-      <c r="E4" s="26">
-        <v>1</v>
-      </c>
-      <c r="F4" s="27">
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1</v>
+      </c>
+      <c r="F4" s="25">
         <f>C4/6 + C5/6 + D4/3 + E4/3</f>
         <v>1</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="24">
         <v>7</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="25" t="s">
+      <c r="J4" s="30"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
+      <c r="P4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="26"/>
-      <c r="I5" s="23">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="24"/>
+      <c r="I5" s="31">
         <f>AVERAGE(F17,B29,G31)</f>
         <v>0.81481481481481488</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="31" t="s">
+      <c r="J5" s="32"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
+      <c r="P5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1033,16 +1047,20 @@
       <c r="G6" s="2">
         <v>8</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="31" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="P6" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1051,71 +1069,83 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="26">
-        <v>1</v>
-      </c>
-      <c r="E7" s="26">
-        <v>1</v>
-      </c>
-      <c r="F7" s="27">
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25">
         <f>C7/9 + C8/9 + C9/9 + D7/3 + E7/3</f>
         <v>1</v>
       </c>
-      <c r="G7" s="26">
-        <v>1</v>
-      </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="25" t="s">
+      <c r="G7" s="24">
+        <v>1</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="P7" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="26"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="31" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="24"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
+      <c r="P8" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="26"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="31" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
+      <c r="P9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1124,66 +1154,66 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="28">
-        <v>1</v>
-      </c>
-      <c r="E10" s="28">
-        <v>1</v>
-      </c>
-      <c r="F10" s="27">
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25">
         <f>C10/9 + C11/9 + C12/9 + D10/3 + E10/3</f>
         <v>1</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="24">
         <v>2</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="25" t="s">
+      <c r="M10" s="22"/>
+      <c r="N10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="31" t="s">
+      <c r="O10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="26"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="31" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="24"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="21" t="s">
         <v>7</v>
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="26"/>
-      <c r="M12" s="32"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="21" t="s">
         <v>4</v>
       </c>
       <c r="P12" s="19"/>
@@ -1212,17 +1242,21 @@
       <c r="G13" s="2">
         <v>3</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1247,13 +1281,17 @@
       <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="31" t="s">
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
+      <c r="P14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1278,15 +1316,19 @@
       <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="25" t="s">
+      <c r="M15" s="22"/>
+      <c r="N15" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="31" t="s">
+      <c r="O15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
+      <c r="P15" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1311,13 +1353,17 @@
       <c r="G16" s="2">
         <v>6</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="31" t="s">
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
+      <c r="P16" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -1335,24 +1381,24 @@
         <f>MAX(G2:G16)+1</f>
         <v>10</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="M17" s="22" t="s">
         <v>66</v>
       </c>
       <c r="N17" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="21" t="s">
         <v>68</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M18" s="32"/>
+      <c r="M18" s="22"/>
       <c r="N18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O18" s="31" t="s">
+      <c r="O18" s="21" t="s">
         <v>70</v>
       </c>
       <c r="P18" s="19"/>
@@ -1374,11 +1420,11 @@
       <c r="H19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="32"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="O19" s="31" t="s">
+      <c r="O19" s="21" t="s">
         <v>72</v>
       </c>
       <c r="P19" s="19"/>
@@ -1593,14 +1639,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M3:M12"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="A10:A12"/>
@@ -1612,12 +1656,14 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="N15:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TP2/GUI-Synth/PROGRESO.xlsx
+++ b/TP2/GUI-Synth/PROGRESO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\GitHub\ASSD\TP2\GUI-Synth\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guido\Documents\GitHub\ASSD\TP2\GUI-Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66357A5-5584-4EEE-B963-533430833FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C91E27-E506-47A0-AB3E-EB38237F6EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -497,43 +497,43 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,7 +549,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -848,10 +848,10 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
@@ -942,7 +942,7 @@
       <c r="G3" s="2">
         <v>9</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="32" t="s">
         <v>57</v>
       </c>
       <c r="N3" s="20" t="s">
@@ -951,11 +951,15 @@
       <c r="O3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -964,25 +968,25 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="24">
-        <v>1</v>
-      </c>
-      <c r="E4" s="24">
-        <v>1</v>
-      </c>
-      <c r="F4" s="25">
+      <c r="D4" s="27">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27">
+        <v>1</v>
+      </c>
+      <c r="F4" s="28">
         <f>C4/6 + C5/6 + D4/3 + E4/3</f>
         <v>1</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="27">
         <v>7</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23" t="s">
+      <c r="J4" s="23"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="26" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="21" t="s">
@@ -996,24 +1000,24 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="24"/>
-      <c r="I5" s="31">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="27"/>
+      <c r="I5" s="24">
         <f>AVERAGE(F17,B29,G31)</f>
         <v>0.81481481481481488</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23"/>
+      <c r="J5" s="25"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="26"/>
       <c r="O5" s="21" t="s">
         <v>12</v>
       </c>
@@ -1047,8 +1051,8 @@
       <c r="G6" s="2">
         <v>8</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="26"/>
       <c r="O6" s="21" t="s">
         <v>13</v>
       </c>
@@ -1060,7 +1064,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1069,21 +1073,21 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="24">
-        <v>1</v>
-      </c>
-      <c r="E7" s="24">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25">
+      <c r="D7" s="27">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7" s="28">
         <f>C7/9 + C8/9 + C9/9 + D7/3 + E7/3</f>
         <v>1</v>
       </c>
-      <c r="G7" s="24">
-        <v>1</v>
-      </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23" t="s">
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="M7" s="32"/>
+      <c r="N7" s="26" t="s">
         <v>14</v>
       </c>
       <c r="O7" s="21" t="s">
@@ -1097,19 +1101,19 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="24"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="23"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="27"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="26"/>
       <c r="O8" s="21" t="s">
         <v>12</v>
       </c>
@@ -1121,19 +1125,19 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="24"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="23"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="27"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="26"/>
       <c r="O9" s="21" t="s">
         <v>13</v>
       </c>
@@ -1145,7 +1149,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1154,70 +1158,82 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="26">
-        <v>1</v>
-      </c>
-      <c r="E10" s="26">
-        <v>1</v>
-      </c>
-      <c r="F10" s="25">
+      <c r="D10" s="29">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1</v>
+      </c>
+      <c r="F10" s="28">
         <f>C10/9 + C11/9 + C12/9 + D10/3 + E10/3</f>
         <v>1</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="27">
         <v>2</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23" t="s">
+      <c r="M10" s="32"/>
+      <c r="N10" s="26" t="s">
         <v>6</v>
       </c>
       <c r="O10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="24"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="27"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="26"/>
       <c r="O11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
+      <c r="P11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="24"/>
-      <c r="M12" s="22"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="27"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="20" t="s">
         <v>59</v>
       </c>
       <c r="O12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="P12" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1242,10 +1258,10 @@
       <c r="G13" s="2">
         <v>3</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="N13" s="26" t="s">
         <v>61</v>
       </c>
       <c r="O13" s="21" t="s">
@@ -1281,8 +1297,8 @@
       <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="26"/>
       <c r="O14" s="21" t="s">
         <v>63</v>
       </c>
@@ -1316,8 +1332,8 @@
       <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="23" t="s">
+      <c r="M15" s="32"/>
+      <c r="N15" s="26" t="s">
         <v>64</v>
       </c>
       <c r="O15" s="21" t="s">
@@ -1353,8 +1369,8 @@
       <c r="G16" s="2">
         <v>6</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="26"/>
       <c r="O16" s="21" t="s">
         <v>65</v>
       </c>
@@ -1381,7 +1397,7 @@
         <f>MAX(G2:G16)+1</f>
         <v>10</v>
       </c>
-      <c r="M17" s="22" t="s">
+      <c r="M17" s="32" t="s">
         <v>66</v>
       </c>
       <c r="N17" s="20" t="s">
@@ -1394,7 +1410,7 @@
       <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M18" s="22"/>
+      <c r="M18" s="32"/>
       <c r="N18" s="20" t="s">
         <v>69</v>
       </c>
@@ -1420,7 +1436,7 @@
       <c r="H19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="22"/>
+      <c r="M19" s="32"/>
       <c r="N19" s="20" t="s">
         <v>71</v>
       </c>
@@ -1639,12 +1655,14 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="N15:N16"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="A10:A12"/>
@@ -1656,14 +1674,12 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M3:M12"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TP2/GUI-Synth/PROGRESO.xlsx
+++ b/TP2/GUI-Synth/PROGRESO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guido\Documents\GitHub\ASSD\TP2\GUI-Synth\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\New-ASSD\TP2\GUI-Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C91E27-E506-47A0-AB3E-EB38237F6EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A60A79B-425D-46C9-AAFB-6D6D4770A571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
+    <workbookView xWindow="7200" yWindow="4110" windowWidth="21600" windowHeight="11385" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>INSTRUMENT</t>
   </si>
@@ -254,10 +254,7 @@
     <t>Beta</t>
   </si>
   <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>0.999</t>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -434,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,6 +494,30 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,32 +529,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,7 +549,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -845,19 +845,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C679E9-F08B-48AB-81D5-D49350C6C4CB}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -880,7 +880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -918,8 +918,11 @@
       <c r="Q2" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -942,7 +945,7 @@
       <c r="G3" s="2">
         <v>9</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="23" t="s">
         <v>57</v>
       </c>
       <c r="N3" s="20" t="s">
@@ -957,9 +960,12 @@
       <c r="Q3" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -968,67 +974,73 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="27">
-        <v>1</v>
-      </c>
-      <c r="E4" s="27">
-        <v>1</v>
-      </c>
-      <c r="F4" s="28">
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+      <c r="F4" s="26">
         <f>C4/6 + C5/6 + D4/3 + E4/3</f>
         <v>1</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="25">
         <v>7</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="26" t="s">
+      <c r="J4" s="31"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="P4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="27"/>
-      <c r="I5" s="24">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="25"/>
+      <c r="I5" s="32">
         <f>AVERAGE(F17,B29,G31)</f>
         <v>0.81481481481481488</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="26"/>
+      <c r="J5" s="33"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
       <c r="O5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1051,20 +1063,23 @@
       <c r="G6" s="2">
         <v>8</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="26"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="24"/>
       <c r="O6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1073,83 +1088,92 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="27">
-        <v>1</v>
-      </c>
-      <c r="E7" s="27">
-        <v>1</v>
-      </c>
-      <c r="F7" s="28">
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26">
         <f>C7/9 + C8/9 + C9/9 + D7/3 + E7/3</f>
         <v>1</v>
       </c>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="26" t="s">
+      <c r="G7" s="25">
+        <v>1</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24" t="s">
         <v>14</v>
       </c>
       <c r="O7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="27"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="26"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="24"/>
       <c r="O8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="27"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="26"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="P9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1158,21 +1182,21 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="29">
-        <v>1</v>
-      </c>
-      <c r="E10" s="29">
-        <v>1</v>
-      </c>
-      <c r="F10" s="28">
+      <c r="D10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27">
+        <v>1</v>
+      </c>
+      <c r="F10" s="26">
         <f>C10/9 + C11/9 + C12/9 + D10/3 + E10/3</f>
         <v>1</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="25">
         <v>2</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="26" t="s">
+      <c r="M10" s="23"/>
+      <c r="N10" s="24" t="s">
         <v>6</v>
       </c>
       <c r="O10" s="21" t="s">
@@ -1184,21 +1208,24 @@
       <c r="Q10" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="27"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="26"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="21" t="s">
         <v>7</v>
       </c>
@@ -1208,20 +1235,23 @@
       <c r="Q11" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="27"/>
-      <c r="M12" s="32"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25"/>
+      <c r="M12" s="23"/>
       <c r="N12" s="20" t="s">
         <v>59</v>
       </c>
@@ -1234,8 +1264,11 @@
       <c r="Q12" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1258,10 +1291,10 @@
       <c r="G13" s="2">
         <v>3</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="26" t="s">
+      <c r="N13" s="24" t="s">
         <v>61</v>
       </c>
       <c r="O13" s="21" t="s">
@@ -1273,8 +1306,11 @@
       <c r="Q13" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1297,8 +1333,8 @@
       <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="26"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
       <c r="O14" s="21" t="s">
         <v>63</v>
       </c>
@@ -1308,8 +1344,11 @@
       <c r="Q14" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -1332,8 +1371,8 @@
       <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="26" t="s">
+      <c r="M15" s="23"/>
+      <c r="N15" s="24" t="s">
         <v>64</v>
       </c>
       <c r="O15" s="21" t="s">
@@ -1345,8 +1384,11 @@
       <c r="Q15" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -1369,8 +1411,8 @@
       <c r="G16" s="2">
         <v>6</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="26"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="21" t="s">
         <v>65</v>
       </c>
@@ -1380,8 +1422,11 @@
       <c r="Q16" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1397,7 +1442,7 @@
         <f>MAX(G2:G16)+1</f>
         <v>10</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="M17" s="23" t="s">
         <v>66</v>
       </c>
       <c r="N17" s="20" t="s">
@@ -1408,9 +1453,12 @@
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M18" s="32"/>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M18" s="23"/>
       <c r="N18" s="20" t="s">
         <v>69</v>
       </c>
@@ -1419,8 +1467,11 @@
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1436,7 +1487,7 @@
       <c r="H19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="32"/>
+      <c r="M19" s="23"/>
       <c r="N19" s="20" t="s">
         <v>71</v>
       </c>
@@ -1445,8 +1496,11 @@
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -1462,8 +1516,15 @@
       <c r="H20" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" s="12">
+        <f>AVERAGE(R3:R19)</f>
+        <v>0.82352941176470584</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -1480,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -1500,7 +1561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -1517,7 +1578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -1537,7 +1598,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
@@ -1557,7 +1618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1577,7 +1638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -1594,7 +1655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>31</v>
       </c>
@@ -1611,7 +1672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
@@ -1629,7 +1690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F30" s="5" t="s">
         <v>43</v>
       </c>
@@ -1640,7 +1701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F31" s="8" t="s">
         <v>22</v>
       </c>
@@ -1655,14 +1716,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M3:M12"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="A10:A12"/>
@@ -1674,12 +1733,14 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="N15:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TP2/GUI-Synth/PROGRESO.xlsx
+++ b/TP2/GUI-Synth/PROGRESO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\New-ASSD\TP2\GUI-Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A60A79B-425D-46C9-AAFB-6D6D4770A571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851F31E0-3F93-4777-8300-500AB9B8E8A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4110" windowWidth="21600" windowHeight="11385" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>INSTRUMENT</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Efectos</t>
   </si>
   <si>
-    <t>Microfono</t>
-  </si>
-  <si>
     <t>Spectogram</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>N° of inst</t>
   </si>
   <si>
-    <t>Play WAV</t>
-  </si>
-  <si>
     <t>Podría mejorarse</t>
   </si>
   <si>
@@ -255,6 +249,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Default value</t>
   </si>
 </sst>
 </file>
@@ -431,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,12 +470,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,6 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,19 +837,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C679E9-F08B-48AB-81D5-D49350C6C4CB}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -877,10 +870,10 @@
         <v>22</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -904,25 +897,28 @@
         <v>0</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -945,27 +941,28 @@
       <c r="G3" s="2">
         <v>9</v>
       </c>
-      <c r="M3" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="21" t="s">
+      <c r="M3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="19">
+      <c r="P3" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="17">
         <v>2</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="S3" s="32"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -974,73 +971,75 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="25">
-        <v>1</v>
-      </c>
-      <c r="E4" s="25">
-        <v>1</v>
-      </c>
-      <c r="F4" s="26">
+      <c r="D4" s="23">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24">
         <f>C4/6 + C5/6 + D4/3 + E4/3</f>
         <v>1</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="23">
         <v>7</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="31"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24" t="s">
+      <c r="I4" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="19">
+      <c r="P4" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17">
         <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="S4" s="32"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="25"/>
-      <c r="I5" s="32">
-        <f>AVERAGE(F17,B29,G31)</f>
-        <v>0.81481481481481488</v>
-      </c>
-      <c r="J5" s="33"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="21" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
+      <c r="I5" s="30">
+        <f>AVERAGE(F17,B27,G31)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="22">
+      <c r="P5" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="20">
         <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="32"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1063,23 +1062,24 @@
       <c r="G6" s="2">
         <v>8</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="21" t="s">
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="22">
+      <c r="P6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="20">
         <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="S6" s="32"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1088,92 +1088,95 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="25">
-        <v>1</v>
-      </c>
-      <c r="E7" s="25">
-        <v>1</v>
-      </c>
-      <c r="F7" s="26">
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="F7" s="24">
         <f>C7/9 + C8/9 + C9/9 + D7/3 + E7/3</f>
         <v>1</v>
       </c>
-      <c r="G7" s="25">
-        <v>1</v>
-      </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="24" t="s">
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="22">
+      <c r="P7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20">
         <v>1</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="S7" s="32"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="21" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="22">
+      <c r="P8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20">
         <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="S8" s="32"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="21" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="22">
+      <c r="P9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20">
         <v>1</v>
       </c>
       <c r="R9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="S9" s="32"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1182,93 +1185,96 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="27">
-        <v>1</v>
-      </c>
-      <c r="E10" s="27">
-        <v>1</v>
-      </c>
-      <c r="F10" s="26">
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24">
         <f>C10/9 + C11/9 + C12/9 + D10/3 + E10/3</f>
         <v>1</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="23">
         <v>2</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24" t="s">
+      <c r="M10" s="21"/>
+      <c r="N10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="19">
+      <c r="P10" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17">
         <v>2</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="S10" s="32"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="21" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="19">
+      <c r="P11" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17">
         <v>1</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="S11" s="32"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O12" s="21" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="23"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="19">
+      <c r="P12" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="17">
         <v>2</v>
       </c>
       <c r="R12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="32"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1291,26 +1297,27 @@
       <c r="G13" s="2">
         <v>3</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="M13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="19">
+      <c r="P13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="17">
         <v>2</v>
       </c>
       <c r="R13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="32"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1333,22 +1340,23 @@
       <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="19">
+      <c r="M14" s="21"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="17">
         <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="32"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -1371,24 +1379,25 @@
       <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="O15" s="21" t="s">
+      <c r="M15" s="21"/>
+      <c r="N15" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="19">
+      <c r="O15" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="17">
         <v>5</v>
       </c>
       <c r="R15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="32"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -1411,22 +1420,23 @@
       <c r="G16" s="2">
         <v>6</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="19">
+      <c r="M16" s="21"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="17">
         <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="32"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1442,36 +1452,38 @@
         <f>MAX(G2:G16)+1</f>
         <v>10</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="32"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M18" s="21"/>
+      <c r="N18" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="O17" s="21" t="s">
+      <c r="O18" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M18" s="23"/>
-      <c r="N18" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
       <c r="R18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="32"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1479,41 +1491,45 @@
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="O19" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="M19" s="21"/>
+      <c r="N19" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
       <c r="R19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="32"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="17">
-        <v>1</v>
-      </c>
-      <c r="H20" s="18">
+        <v>35</v>
+      </c>
+      <c r="G20" s="15">
+        <v>1</v>
+      </c>
+      <c r="H20" s="16">
         <v>0</v>
       </c>
       <c r="Q20" s="8" t="s">
@@ -1524,7 +1540,7 @@
         <v>0.82352941176470584</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -1532,16 +1548,16 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="17">
-        <v>1</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -1549,159 +1565,150 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="17">
-        <v>1</v>
-      </c>
-      <c r="H22" s="18">
+        <v>37</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+      <c r="H22" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="17">
-        <v>1</v>
-      </c>
-      <c r="H23" s="18">
+        <v>38</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="14">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="16">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="15">
+        <v>1</v>
+      </c>
+      <c r="H25" s="16">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="14">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="15">
+        <v>1</v>
+      </c>
+      <c r="H26" s="16">
+        <v>6</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="12">
+        <f>AVERAGE(B20:B26)</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="15">
+        <v>1</v>
+      </c>
+      <c r="H27" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="15">
+        <v>1</v>
+      </c>
+      <c r="H28" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1</v>
+      </c>
+      <c r="H29" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="17">
-        <v>1</v>
-      </c>
-      <c r="H24" s="18">
-        <v>4</v>
-      </c>
-      <c r="J24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="17">
-        <v>1</v>
-      </c>
-      <c r="H25" s="18">
-        <v>5</v>
-      </c>
-      <c r="J25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="14">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="17">
-        <v>1</v>
-      </c>
-      <c r="H26" s="18">
-        <v>6</v>
-      </c>
-      <c r="J26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="14">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="17">
-        <v>1</v>
-      </c>
-      <c r="H27" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="14">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="17">
-        <v>1</v>
-      </c>
-      <c r="H28" s="18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="12">
-        <f>AVERAGE(B20:B28)</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="17">
-        <v>1</v>
-      </c>
-      <c r="H29" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="17">
-        <v>1</v>
-      </c>
-      <c r="H30" s="18">
+      <c r="G30" s="15">
+        <v>1</v>
+      </c>
+      <c r="H30" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F31" s="8" t="s">
         <v>22</v>
       </c>

--- a/TP2/GUI-Synth/PROGRESO.xlsx
+++ b/TP2/GUI-Synth/PROGRESO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\New-ASSD\TP2\GUI-Synth\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\GitHub\ASSD\TP2\GUI-Synth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851F31E0-3F93-4777-8300-500AB9B8E8A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BC48F3-06DE-49B6-B47E-6F11BFCAA1C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{087B934F-F985-43E7-8A7E-BB411BA2E593}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +277,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -428,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -488,40 +495,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C679E9-F08B-48AB-81D5-D49350C6C4CB}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +950,7 @@
       <c r="G3" s="2">
         <v>9</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="32" t="s">
         <v>55</v>
       </c>
       <c r="N3" s="18" t="s">
@@ -959,10 +968,12 @@
       <c r="R3" s="1">
         <v>1</v>
       </c>
-      <c r="S3" s="32"/>
+      <c r="S3" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -971,25 +982,25 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="23">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23">
-        <v>1</v>
-      </c>
-      <c r="F4" s="24">
+      <c r="D4" s="27">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27">
+        <v>1</v>
+      </c>
+      <c r="F4" s="28">
         <f>C4/6 + C5/6 + D4/3 + E4/3</f>
         <v>1</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="27">
         <v>7</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22" t="s">
+      <c r="J4" s="23"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="26" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="19" t="s">
@@ -1004,27 +1015,29 @@
       <c r="R4" s="1">
         <v>1</v>
       </c>
-      <c r="S4" s="32"/>
+      <c r="S4" s="33">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="I5" s="30">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="27"/>
+      <c r="I5" s="24">
         <f>AVERAGE(F17,B27,G31)</f>
         <v>1</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
+      <c r="J5" s="25"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="26"/>
       <c r="O5" s="19" t="s">
         <v>12</v>
       </c>
@@ -1037,7 +1050,9 @@
       <c r="R5" s="1">
         <v>1</v>
       </c>
-      <c r="S5" s="32"/>
+      <c r="S5" s="21">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1062,8 +1077,8 @@
       <c r="G6" s="2">
         <v>8</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="22"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="26"/>
       <c r="O6" s="19" t="s">
         <v>13</v>
       </c>
@@ -1076,10 +1091,12 @@
       <c r="R6" s="1">
         <v>1</v>
       </c>
-      <c r="S6" s="32"/>
+      <c r="S6" s="21">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1088,21 +1105,21 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="23">
-        <v>1</v>
-      </c>
-      <c r="E7" s="23">
-        <v>1</v>
-      </c>
-      <c r="F7" s="24">
+      <c r="D7" s="27">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7" s="28">
         <f>C7/9 + C8/9 + C9/9 + D7/3 + E7/3</f>
         <v>1</v>
       </c>
-      <c r="G7" s="23">
-        <v>1</v>
-      </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="22" t="s">
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="M7" s="32"/>
+      <c r="N7" s="26" t="s">
         <v>14</v>
       </c>
       <c r="O7" s="19" t="s">
@@ -1117,22 +1134,24 @@
       <c r="R7" s="1">
         <v>1</v>
       </c>
-      <c r="S7" s="32"/>
+      <c r="S7" s="21">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="23"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="27"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="26"/>
       <c r="O8" s="19" t="s">
         <v>12</v>
       </c>
@@ -1145,22 +1164,24 @@
       <c r="R8" s="1">
         <v>1</v>
       </c>
-      <c r="S8" s="32"/>
+      <c r="S8" s="21">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="23"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="27"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="26"/>
       <c r="O9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1173,10 +1194,12 @@
       <c r="R9" s="1">
         <v>1</v>
       </c>
-      <c r="S9" s="32"/>
+      <c r="S9" s="21">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1185,21 +1208,21 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="25">
-        <v>1</v>
-      </c>
-      <c r="E10" s="25">
-        <v>1</v>
-      </c>
-      <c r="F10" s="24">
+      <c r="D10" s="29">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1</v>
+      </c>
+      <c r="F10" s="28">
         <f>C10/9 + C11/9 + C12/9 + D10/3 + E10/3</f>
         <v>1</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="27">
         <v>2</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22" t="s">
+      <c r="M10" s="32"/>
+      <c r="N10" s="26" t="s">
         <v>6</v>
       </c>
       <c r="O10" s="19" t="s">
@@ -1214,22 +1237,22 @@
       <c r="R10" s="1">
         <v>1</v>
       </c>
-      <c r="S10" s="32"/>
+      <c r="S10" s="21"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="22"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="27"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="26"/>
       <c r="O11" s="19" t="s">
         <v>7</v>
       </c>
@@ -1242,21 +1265,22 @@
       <c r="R11" s="1">
         <v>1</v>
       </c>
-      <c r="S11" s="32"/>
+      <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="23"/>
-      <c r="M12" s="21"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="27"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="18" t="s">
         <v>57</v>
       </c>
@@ -1272,7 +1296,7 @@
       <c r="R12" s="1">
         <v>1</v>
       </c>
-      <c r="S12" s="32"/>
+      <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1297,10 +1321,10 @@
       <c r="G13" s="2">
         <v>3</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="26" t="s">
         <v>59</v>
       </c>
       <c r="O13" s="19" t="s">
@@ -1315,7 +1339,9 @@
       <c r="R13" s="1">
         <v>1</v>
       </c>
-      <c r="S13" s="32"/>
+      <c r="S13" s="21">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1340,8 +1366,8 @@
       <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="22"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="26"/>
       <c r="O14" s="19" t="s">
         <v>61</v>
       </c>
@@ -1354,7 +1380,9 @@
       <c r="R14" s="1">
         <v>1</v>
       </c>
-      <c r="S14" s="32"/>
+      <c r="S14" s="21">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1379,8 +1407,8 @@
       <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="22" t="s">
+      <c r="M15" s="32"/>
+      <c r="N15" s="26" t="s">
         <v>62</v>
       </c>
       <c r="O15" s="19" t="s">
@@ -1395,7 +1423,9 @@
       <c r="R15" s="1">
         <v>1</v>
       </c>
-      <c r="S15" s="32"/>
+      <c r="S15" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1420,8 +1450,8 @@
       <c r="G16" s="2">
         <v>6</v>
       </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="22"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="26"/>
       <c r="O16" s="19" t="s">
         <v>63</v>
       </c>
@@ -1434,7 +1464,9 @@
       <c r="R16" s="1">
         <v>1</v>
       </c>
-      <c r="S16" s="32"/>
+      <c r="S16" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -1452,7 +1484,7 @@
         <f>MAX(G2:G16)+1</f>
         <v>10</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="32" t="s">
         <v>64</v>
       </c>
       <c r="N17" s="18" t="s">
@@ -1466,10 +1498,10 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="S17" s="32"/>
+      <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M18" s="21"/>
+      <c r="M18" s="32"/>
       <c r="N18" s="18" t="s">
         <v>67</v>
       </c>
@@ -1481,7 +1513,7 @@
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="32"/>
+      <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1499,7 +1531,7 @@
       <c r="H19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="21"/>
+      <c r="M19" s="32"/>
       <c r="N19" s="18" t="s">
         <v>69</v>
       </c>
@@ -1511,7 +1543,7 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="32"/>
+      <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1723,12 +1755,14 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="N15:N16"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="A10:A12"/>
@@ -1740,14 +1774,12 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M3:M12"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
